--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1587,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1622,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1680,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1864,10 +1876,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1911,28 +1923,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1957,28 +1969,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2153,10 +2165,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2200,28 +2212,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2246,28 +2258,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2483,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2518,28 +2530,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2576,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2743,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2778,28 +2790,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2836,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3367,10 +3379,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3414,28 +3426,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3460,28 +3472,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3627,10 +3639,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3674,28 +3686,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3720,28 +3732,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4015,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4062,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4108,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4275,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4310,28 +4322,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4356,28 +4368,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4523,10 +4535,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4570,28 +4582,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4616,28 +4628,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4812,10 +4824,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4859,28 +4871,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4905,28 +4917,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5101,10 +5113,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5148,28 +5160,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5194,28 +5206,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5361,10 +5373,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5408,28 +5420,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5454,28 +5466,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5604,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5651,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5697,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5794,10 +5806,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5841,28 +5853,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5887,28 +5899,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6054,10 +6066,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6101,28 +6113,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6147,28 +6159,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6239,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
